--- a/src/test/resources/Sheet.xlsx
+++ b/src/test/resources/Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehbosha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehbosha\IdeaProjects\FacebookSearch\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD08C69E-E17A-4D4A-8624-08A08849EA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09975EEC-B3D9-43AA-B925-818E0CEB1D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B193514D-1EE4-49DC-8686-A42607CF62B9}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,9 +72,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Arial Unicode MS"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,13 +423,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.36328125" customWidth="1"/>
     <col min="2" max="2" width="30.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -444,7 +445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -452,7 +453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
